--- a/TestCase/TestCase.xlsx
+++ b/TestCase/TestCase.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050"/>
+    <workbookView windowWidth="20385" windowHeight="8370"/>
   </bookViews>
   <sheets>
     <sheet name="TestCase" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26">
   <si>
     <t>No.</t>
   </si>
@@ -64,16 +64,34 @@
     <t>Form</t>
   </si>
   <si>
-    <t>{"user_id":"286669","unique_id":"6304783f166f252a0c35e5ad34fd11a0","goods_id":"184","goods_num":"6","address_id":"14471"}</t>
+    <t>{"user_id":"286669","unique_id":"6304783f166f252a0c35e5ad34fd11a0","goods_id":"184","goods_num":"1","address_id":"144471"}</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>"returnDesc": "成功"</t>
+    <t>"result":true</t>
   </si>
   <si>
     <t>Yes</t>
+  </si>
+  <si>
+    <t>选择商品</t>
+  </si>
+  <si>
+    <t>/cart/select_goods</t>
+  </si>
+  <si>
+    <t>{"user_id":"286669","unique_id":"6304783f166f252a0c35e5ad34fd11a0","goods_id":"184","selected":"1","address_id":"144471"}</t>
+  </si>
+  <si>
+    <t>添加商品</t>
+  </si>
+  <si>
+    <t>/cart/add_goods</t>
+  </si>
+  <si>
+    <t>{"user_id":"286669","unique_id":"6304783f166f252a0c35e5ad34fd11a0","goods_id":"4375"}</t>
   </si>
 </sst>
 </file>
@@ -81,12 +99,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -104,27 +122,27 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -132,13 +150,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -155,16 +166,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -177,9 +187,24 @@
       <scheme val="major"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -193,6 +218,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -203,6 +235,14 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -212,35 +252,6 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -255,19 +266,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -279,139 +416,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -446,6 +457,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.399975585192419"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -460,21 +480,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -496,9 +501,29 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="thick">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -512,11 +537,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.399975585192419"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -535,173 +566,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1035,15 +1046,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="G2" sqref="G2"/>
+      <selection pane="bottomLeft" activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3"/>
   <cols>
     <col min="1" max="1" width="5.125" customWidth="1"/>
     <col min="2" max="2" width="14.5" customWidth="1"/>
@@ -1095,7 +1106,7 @@
     </row>
     <row r="2" ht="54" spans="1:11">
       <c r="A2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>11</v>
@@ -1122,11 +1133,78 @@
         <v>18</v>
       </c>
       <c r="K2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" ht="54" spans="1:11">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" ht="40.5" spans="1:11">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K4" t="s">
         <v>19</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K508">
+      <formula1>"Yes,No"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E508">
       <formula1>"POST,GET"</formula1>
     </dataValidation>
@@ -1135,9 +1213,6 @@
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H508">
       <formula1>"No,MD5,DES"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K508">
-      <formula1>"Yes,No"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
